--- a/Metricas_Resultados.xlsx
+++ b/Metricas_Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Oliveira\Desktop\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D810C1-B5B7-4FF8-8E7A-BDC74C7FE3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FFFB5D-2A68-44BE-A0D8-90231E80E667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FA5C7D95-1E17-4EF8-BD8C-49661E80947C}"/>
   </bookViews>
@@ -4786,43 +4786,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>131</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>132</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5272,43 +5272,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>145</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5758,43 +5758,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.292323112487793E-2</c:v>
+                  <c:v>3.9980411529541024E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48108768463134771</c:v>
+                  <c:v>6.2531471252441406E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16604042053222659</c:v>
+                  <c:v>2.7179718017578122E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5724024772644039</c:v>
+                  <c:v>0.31274724006652832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1589736938476563E-2</c:v>
+                  <c:v>7.4481964111328116E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2964248657226561E-2</c:v>
+                  <c:v>2.9778480529785161E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48285937309265142</c:v>
+                  <c:v>7.8719854354858398E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2001247406005859E-2</c:v>
+                  <c:v>6.2384605407714844E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3534297943115231E-2</c:v>
+                  <c:v>3.9999485015869141E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17337131500244141</c:v>
+                  <c:v>1.5814542770385739E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1876938343048096</c:v>
+                  <c:v>3.0931472778320309E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53095746040344238</c:v>
+                  <c:v>7.4284553527832031E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85325741767883301</c:v>
+                  <c:v>0.114410400390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6723,43 +6723,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.38600897789001459</c:v>
+                  <c:v>3.9000272750854492E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9598941802978524E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3820838928222656E-2</c:v>
+                  <c:v>8.2290172576904297E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.200985908508301E-2</c:v>
+                  <c:v>8.4598064422607422E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.084043502807617</c:v>
+                  <c:v>7.0704221725463867E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.581055641174316</c:v>
+                  <c:v>0.34592008590698242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1090128421783447</c:v>
+                  <c:v>2.3503303527832031E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3508536815643311</c:v>
+                  <c:v>0.21631646156311041</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.133524894714355</c:v>
+                  <c:v>0.14307475090026861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25644946098327642</c:v>
+                  <c:v>3.3282041549682617E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32822751998901373</c:v>
+                  <c:v>5.4956674575805657E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4525384902954102E-2</c:v>
+                  <c:v>5.2726268768310547E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.200169563293457E-2</c:v>
+                  <c:v>8.9993476867675781E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22587,8 +22587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CEA61C-CC86-4F16-A498-B58A33B5B503}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23854,8 +23854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A818470-C5E7-443C-99E8-F1A5E95ABF2F}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:A64"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25121,8 +25121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BD8609-5741-4620-B212-7C58FB91FB24}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:A67"/>
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26448,8 +26448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6182B6-D005-4C1F-AD95-61A682CFA891}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:A67"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27775,8 +27775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644FC333-96A0-45B7-BEA0-DEC6F694A124}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A56"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28603,16 +28603,16 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D44">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E44">
-        <v>2.292323112487793E-2</v>
+        <v>3.9980411529541024E-3</v>
       </c>
       <c r="F44">
-        <v>0.38600897789001459</v>
+        <v>3.9000272750854492E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -28623,16 +28623,16 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>0.48108768463134771</v>
+        <v>6.2531471252441406E-2</v>
       </c>
       <c r="F45">
-        <v>3.9598941802978524E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -28643,16 +28643,16 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D46">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E46">
-        <v>0.16604042053222659</v>
+        <v>2.7179718017578122E-2</v>
       </c>
       <c r="F46">
-        <v>6.3820838928222656E-2</v>
+        <v>8.2290172576904297E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -28663,16 +28663,16 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D47">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E47">
-        <v>2.5724024772644039</v>
+        <v>0.31274724006652832</v>
       </c>
       <c r="F47">
-        <v>1.200985908508301E-2</v>
+        <v>8.4598064422607422E-3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -28683,16 +28683,16 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D48">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E48">
-        <v>4.1589736938476563E-2</v>
+        <v>7.4481964111328116E-3</v>
       </c>
       <c r="F48">
-        <v>1.084043502807617</v>
+        <v>7.0704221725463867E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -28703,16 +28703,16 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E49">
-        <v>1.2964248657226561E-2</v>
+        <v>2.9778480529785161E-3</v>
       </c>
       <c r="F49">
-        <v>2.581055641174316</v>
+        <v>0.34592008590698242</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -28723,16 +28723,16 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D50">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50">
-        <v>0.48285937309265142</v>
+        <v>7.8719854354858398E-2</v>
       </c>
       <c r="F50">
-        <v>0.1090128421783447</v>
+        <v>2.3503303527832031E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -28743,16 +28743,16 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D51">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E51">
-        <v>4.2001247406005859E-2</v>
+        <v>6.2384605407714844E-3</v>
       </c>
       <c r="F51">
-        <v>2.3508536815643311</v>
+        <v>0.21631646156311041</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -28763,16 +28763,16 @@
         <v>6</v>
       </c>
       <c r="C52">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D52">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E52">
-        <v>2.3534297943115231E-2</v>
+        <v>3.9999485015869141E-3</v>
       </c>
       <c r="F52">
-        <v>1.133524894714355</v>
+        <v>0.14307475090026861</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -28783,16 +28783,16 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D53">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E53">
-        <v>0.17337131500244141</v>
+        <v>1.5814542770385739E-2</v>
       </c>
       <c r="F53">
-        <v>0.25644946098327642</v>
+        <v>3.3282041549682617E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -28803,16 +28803,16 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D54">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E54">
-        <v>0.1876938343048096</v>
+        <v>3.0931472778320309E-2</v>
       </c>
       <c r="F54">
-        <v>0.32822751998901373</v>
+        <v>5.4956674575805657E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -28823,16 +28823,16 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D55">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E55">
-        <v>0.53095746040344238</v>
+        <v>7.4284553527832031E-2</v>
       </c>
       <c r="F55">
-        <v>4.4525384902954102E-2</v>
+        <v>5.2726268768310547E-3</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28843,16 +28843,16 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D56">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E56">
-        <v>0.85325741767883301</v>
+        <v>0.114410400390625</v>
       </c>
       <c r="F56">
-        <v>7.200169563293457E-2</v>
+        <v>8.9993476867675781E-3</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -28864,19 +28864,19 @@
       </c>
       <c r="C57" s="1">
         <f>AVERAGE(C44:C56)</f>
-        <v>99.615384615384613</v>
+        <v>88.307692307692307</v>
       </c>
       <c r="D57" s="1">
         <f>AVERAGE(D44:D56)</f>
-        <v>92.230769230769226</v>
+        <v>83.07692307692308</v>
       </c>
       <c r="E57" s="1">
         <f>AVERAGE(E44:E56)</f>
-        <v>0.43005251884460449</v>
+        <v>5.70216729090764E-2</v>
       </c>
       <c r="F57" s="1">
         <f>AVERAGE(F44:F56)</f>
-        <v>0.64811493800236619</v>
+        <v>7.3670662366426914E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -28886,19 +28886,19 @@
       </c>
       <c r="C58">
         <f>MEDIAN(C44:C56)</f>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D58">
         <f>MEDIAN(D44:D56)</f>
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E58">
         <f>MEDIAN(E44:E56)</f>
-        <v>0.17337131500244141</v>
+        <v>2.7179718017578122E-2</v>
       </c>
       <c r="F58">
         <f>MEDIAN(F44:F56)</f>
-        <v>0.25644946098327642</v>
+        <v>3.3282041549682617E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -28908,19 +28908,19 @@
       </c>
       <c r="C59">
         <f>_xlfn.STDEV.P(C44:C56)</f>
-        <v>47.457735790812151</v>
+        <v>40.389230505524644</v>
       </c>
       <c r="D59">
         <f>_xlfn.STDEV.P(D44:D56)</f>
-        <v>40.890386017241916</v>
+        <v>35.921841520513006</v>
       </c>
       <c r="E59">
         <f>_xlfn.STDEV.P(E44:E56)</f>
-        <v>0.6670905323503078</v>
+        <v>8.1494447263077988E-2</v>
       </c>
       <c r="F59">
         <f>_xlfn.STDEV.P(F44:F56)</f>
-        <v>0.85635577363064685</v>
+        <v>9.915669615504738E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -28930,19 +28930,19 @@
       </c>
       <c r="C60">
         <f>MAX(C44:C56)</f>
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="D60">
         <f>MAX(D44:D56)</f>
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E60">
         <f>MAX(E44:E56)</f>
-        <v>2.5724024772644039</v>
+        <v>0.31274724006652832</v>
       </c>
       <c r="F60">
         <f>MAX(F44:F56)</f>
-        <v>2.581055641174316</v>
+        <v>0.34592008590698242</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -28952,19 +28952,19 @@
       </c>
       <c r="C61" s="6">
         <f>MIN(C44:C56)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D61" s="6">
         <f>MIN(D44:D56)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E61" s="6">
         <f>MIN(E44:E56)</f>
-        <v>1.2964248657226561E-2</v>
+        <v>2.9778480529785161E-3</v>
       </c>
       <c r="F61" s="6">
         <f>MIN(F44:F56)</f>
-        <v>3.9598941802978524E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
